--- a/compounds_db.xlsx
+++ b/compounds_db.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timofey.Panchenko\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\PythonProject2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF1624A-A979-43F3-92F9-6DF75CF794F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD444DE2-688B-4F40-A7C0-D9C9E041ABBC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="495" windowWidth="28245" windowHeight="16095" xr2:uid="{63F3CEB3-BC89-E84F-B63E-65E16E434A4B}"/>
+    <workbookView xWindow="555" yWindow="495" windowWidth="28245" windowHeight="16095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Formula</t>
   </si>
@@ -33,79 +28,91 @@
     <t>Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>ΔfH0_298</t>
   </si>
   <si>
+    <t>S0_298</t>
+  </si>
+  <si>
+    <t>Cp,a</t>
+  </si>
+  <si>
+    <t>Cp,b</t>
+  </si>
+  <si>
+    <t>Cp,c</t>
+  </si>
+  <si>
+    <t>Cp, c'</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>kJ/mol</t>
+  </si>
+  <si>
+    <t>J/mol/K</t>
+  </si>
+  <si>
     <t>C4H10</t>
   </si>
   <si>
-    <t>State</t>
+    <t>n-butane</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
   <si>
     <t>O2</t>
   </si>
   <si>
+    <t>oxygen</t>
+  </si>
+  <si>
     <t>CO2</t>
   </si>
   <si>
+    <t>carbon dioxide</t>
+  </si>
+  <si>
     <t>H2O</t>
   </si>
   <si>
-    <t>n-butane</t>
-  </si>
-  <si>
-    <t>oxygen</t>
-  </si>
-  <si>
-    <t>carbon dioxide</t>
-  </si>
-  <si>
     <t>water</t>
   </si>
   <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>kJ/mol</t>
-  </si>
-  <si>
     <t>l</t>
   </si>
   <si>
-    <t>S0_298</t>
-  </si>
-  <si>
-    <t>Cp,a</t>
-  </si>
-  <si>
-    <t>Cp,b</t>
-  </si>
-  <si>
-    <t>Cp,c</t>
-  </si>
-  <si>
-    <t>J/mol/K</t>
-  </si>
-  <si>
-    <t>Cp, c'</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
     <t>SO2</t>
   </si>
   <si>
+    <t>sulfur dioxide</t>
+  </si>
+  <si>
     <t>SO3</t>
   </si>
   <si>
     <t>sulfur trioxide</t>
   </si>
   <si>
-    <t>sulfur dioxide</t>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>hidrogen</t>
+  </si>
+  <si>
+    <t>3,26*10^(-3)</t>
+  </si>
+  <si>
+    <t>0,502*10^5</t>
   </si>
 </sst>
 </file>
@@ -457,11 +464,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE19873-53DE-CD43-9C10-E162526ACD78}">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M17" sqref="A12:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -479,42 +486,42 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -533,13 +540,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>-126.15</v>
@@ -568,13 +575,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -592,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-904000</v>
+        <v>-377000</v>
       </c>
       <c r="J5">
         <v>298</v>
@@ -603,13 +610,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>-393.51</v>
@@ -638,13 +645,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>-241.81</v>
@@ -673,13 +680,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>-285.83</v>
@@ -711,10 +718,10 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>-296.89999999999998</v>
@@ -743,13 +750,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>-395.85</v>
@@ -774,6 +781,41 @@
       </c>
       <c r="K10">
         <v>1300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>130.6</v>
+      </c>
+      <c r="F11">
+        <v>27.28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <v>298</v>
+      </c>
+      <c r="K11">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/compounds_db.xlsx
+++ b/compounds_db.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\PythonProject2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\numMethInChem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD444DE2-688B-4F40-A7C0-D9C9E041ABBC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1CB53C-FF08-4654-9361-5845565409D0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="555" yWindow="495" windowWidth="28245" windowHeight="16095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Formula</t>
   </si>
@@ -109,10 +109,13 @@
     <t>hidrogen</t>
   </si>
   <si>
-    <t>3,26*10^(-3)</t>
-  </si>
-  <si>
-    <t>0,502*10^5</t>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>N2O</t>
+  </si>
+  <si>
+    <t>nitrogen (II) oxide</t>
   </si>
 </sst>
 </file>
@@ -465,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M17" sqref="A12:M17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -802,20 +805,90 @@
       <c r="F11">
         <v>27.28</v>
       </c>
-      <c r="G11" t="s">
-        <v>29</v>
+      <c r="G11">
+        <v>3.2599999999999999E-3</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
+      <c r="I11">
+        <v>50200</v>
       </c>
       <c r="J11">
         <v>298</v>
       </c>
       <c r="K11">
         <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>91.3</v>
+      </c>
+      <c r="E12">
+        <v>210.64</v>
+      </c>
+      <c r="F12">
+        <v>29.6</v>
+      </c>
+      <c r="G12">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>-59000</v>
+      </c>
+      <c r="J12">
+        <v>298</v>
+      </c>
+      <c r="K12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>82</v>
+      </c>
+      <c r="E13">
+        <v>219.83</v>
+      </c>
+      <c r="F13">
+        <v>45.7</v>
+      </c>
+      <c r="G13">
+        <v>8.6E-3</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>-853000</v>
+      </c>
+      <c r="J13">
+        <v>298</v>
+      </c>
+      <c r="K13">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
